--- a/Regression/Metrics Research Project Extracted Data (1).xlsx
+++ b/Regression/Metrics Research Project Extracted Data (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55E503C-D6BD-C14C-B169-0D23F8D4634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEF272-649A-C547-AA3D-99890182C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24280" yWindow="6300" windowWidth="18380" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22340" yWindow="7220" windowWidth="18380" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -112,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -121,6 +118,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -451,7 +450,7 @@
     <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>637207117</v>
       </c>
@@ -464,9 +463,14 @@
       <c r="D1" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F1" s="8">
+        <v>19470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>686225547</v>
       </c>
@@ -479,9 +483,14 @@
       <c r="D2" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>20180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>686884688</v>
       </c>
@@ -494,9 +503,14 @@
       <c r="D3" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>20724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>713872730</v>
       </c>
@@ -509,9 +523,14 @@
       <c r="D4" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="8">
+        <v>21748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>745031484</v>
       </c>
@@ -524,9 +543,14 @@
       <c r="D5" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>22802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>804582873</v>
       </c>
@@ -539,9 +563,14 @@
       <c r="D6" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>23739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>873598615</v>
       </c>
@@ -554,9 +583,14 @@
       <c r="D7" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>25165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>910988515</v>
       </c>
@@ -569,9 +603,14 @@
       <c r="D8" s="4">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>26273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1071222023</v>
       </c>
@@ -584,9 +623,14 @@
       <c r="D9" s="4">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1096858749</v>
       </c>
@@ -599,9 +643,14 @@
       <c r="D10" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>27608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1122098054</v>
       </c>
@@ -614,9 +663,14 @@
       <c r="D11" s="4">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>27873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1161447884</v>
       </c>
@@ -629,9 +683,14 @@
       <c r="D12" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>28776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1240993964</v>
       </c>
@@ -644,9 +703,14 @@
       <c r="D13" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>30189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1409316267</v>
       </c>
@@ -659,9 +723,14 @@
       <c r="D14" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>31772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1668743741</v>
       </c>
@@ -674,9 +743,14 @@
       <c r="D15" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>33514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1779888684</v>
       </c>
@@ -689,9 +763,14 @@
       <c r="D16" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>34474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1891764585</v>
       </c>
@@ -704,9 +783,14 @@
       <c r="D17" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>34393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1710228010</v>
       </c>
@@ -719,9 +803,14 @@
       <c r="D18" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="9">
+        <v>0.107</v>
+      </c>
+      <c r="F18" s="8">
+        <v>32343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1514517876</v>
       </c>
@@ -734,9 +823,14 @@
       <c r="D19" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="9">
+        <v>0.104</v>
+      </c>
+      <c r="F19" s="8">
+        <v>33665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1515429813</v>
       </c>
@@ -749,9 +843,14 @@
       <c r="D20" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>34953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1505946759</v>
       </c>
@@ -764,9 +863,14 @@
       <c r="D21" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>35579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1549336282</v>
       </c>
@@ -779,9 +883,14 @@
       <c r="D22" s="4">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1693367097</v>
       </c>
@@ -794,9 +903,14 @@
       <c r="D23" s="4">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1905191315</v>
       </c>
@@ -809,9 +923,14 @@
       <c r="D24" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>39243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2006261220</v>
       </c>
@@ -824,9 +943,14 @@
       <c r="D25" s="4">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>39895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2148166580</v>
       </c>
@@ -839,9 +963,14 @@
       <c r="D26" s="4">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>41856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2320434822</v>
       </c>
@@ -854,9 +983,14 @@
       <c r="D27" s="4">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2504643607</v>
       </c>
@@ -869,9 +1003,14 @@
       <c r="D28" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2667213448</v>
       </c>
@@ -884,9 +1023,14 @@
       <c r="D29" s="4">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>48160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2757416165</v>
       </c>
@@ -899,9 +1043,14 @@
       <c r="D30" s="4">
         <v>3.04E-2</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>53102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3071983286</v>
       </c>
@@ -914,9 +1063,14 @@
       <c r="D31" s="4">
         <v>0.05</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F31" s="8">
+        <v>53840</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
